--- a/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Ichamoti_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Ichamoti_Khal_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FD47F0-E735-40B4-9E5A-B3E9B3CDDEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB212A6-A2FB-4F69-BD5C-8E4AE16E3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -36898,7 +36898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -37876,7 +37876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
